--- a/STM32（五）待机唤醒，ADC，DAC.xlsx
+++ b/STM32（五）待机唤醒，ADC，DAC.xlsx
@@ -1,48 +1,741 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505"/>
+    <workbookView windowWidth="28125" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="待机模式" sheetId="1" r:id="rId1"/>
+    <sheet name="ADC" sheetId="2" r:id="rId2"/>
+    <sheet name="ADC结构框图" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="52">
+  <si>
+    <t>STM32</t>
+  </si>
+  <si>
+    <t>⑴</t>
+  </si>
+  <si>
+    <t>⑶</t>
+  </si>
+  <si>
+    <t>①</t>
+  </si>
+  <si>
+    <t>②</t>
+  </si>
+  <si>
+    <t>⑸⑹⑺⑻⑼⑽</t>
+  </si>
+  <si>
+    <t>第二十四讲：待机模式</t>
+  </si>
+  <si>
+    <t>⑵</t>
+  </si>
+  <si>
+    <t>⑷</t>
+  </si>
+  <si>
+    <t>③</t>
+  </si>
+  <si>
+    <t>④</t>
+  </si>
+  <si>
+    <t>⑤⑥⑦⑧⑨⑩</t>
+  </si>
+  <si>
+    <t>低功耗模式介绍：</t>
+  </si>
+  <si>
+    <t>上电后芯片进入运行模式，HCLK为CPU提供时钟，执行程序，当CPU没有负荷时，可以进入多种低功耗模式</t>
+  </si>
+  <si>
+    <t>最低电源消耗，最快启动时间，等，但是芯片运行是也可以通过如下方式降低功耗</t>
+  </si>
+  <si>
+    <t>⑴降低系统时钟</t>
+  </si>
+  <si>
+    <t>⑵外设不用的时候关闭时钟</t>
+  </si>
+  <si>
+    <t>本芯片提供了三种低功耗模式：</t>
+  </si>
+  <si>
+    <t>⑴睡眠模式：内核停了，外设没停</t>
+  </si>
+  <si>
+    <t>⑵停止模式：关闭所有的时钟</t>
+  </si>
+  <si>
+    <t>⑶待机模式：内核电源关闭</t>
+  </si>
+  <si>
+    <t>⑵⑶这两个把内核电源关了，所以内核寄存器的值也没了，程序运行记录也没了，相当于重启了。</t>
+  </si>
+  <si>
+    <t>待机模式配置步骤：</t>
+  </si>
+  <si>
+    <t>⑴使能电源时钟</t>
+  </si>
+  <si>
+    <t>⑵设置唤醒源</t>
+  </si>
+  <si>
+    <t>⑶进入待机模式</t>
+  </si>
+  <si>
+    <t>第二十五讲：ADC</t>
+  </si>
+  <si>
+    <t>介绍：</t>
+  </si>
+  <si>
+    <t>模数转换器，主要分为逐次逼近型，双积分型，电压频率转换型。该芯片用的是逐次逼近型</t>
+  </si>
+  <si>
+    <t>该芯片又三个ADC，可以独立使用也可以双重用（提高采样率）</t>
+  </si>
+  <si>
+    <t>该芯片的AD从是12位逐级逼近型的模数转换器，有18个通道，16个外部源，2个内部源，</t>
+  </si>
+  <si>
+    <t>ADC的结果存在16位的数据寄存器中，12位的结果可以左对齐也可以右对齐</t>
+  </si>
+  <si>
+    <t>ADC有模拟看门狗的功能，用户可以检测输入电压是否超过了设定的阈值</t>
+  </si>
+  <si>
+    <t>该学5号儿了</t>
+  </si>
+  <si>
+    <t>1号：</t>
+  </si>
+  <si>
+    <t>电压输入管脚</t>
+  </si>
+  <si>
+    <r>
+      <t>电压输入范围是V</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>REF-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>—V</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>REF+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>一般V</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>REF-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>和V</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SSA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>接GND上，V</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>REF+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>和V</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DDA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>接3.3V上</t>
+    </r>
+  </si>
+  <si>
+    <t>这样ADC的输入范围就是0-3.3V了</t>
+  </si>
+  <si>
+    <t>开发板默认这样接完了，要是想测更高的电压或者负电压，那就自己上外部设计电路去，自己转换成0-3.3V</t>
+  </si>
+  <si>
+    <t>2号：</t>
+  </si>
+  <si>
+    <t>对应16个外部通道</t>
+  </si>
+  <si>
+    <r>
+      <t>下面的温度传感器和V</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>REFINT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>是另外的两个内部通道</t>
+    </r>
+  </si>
+  <si>
+    <t>3号：</t>
+  </si>
+  <si>
+    <t>通道的转换顺序</t>
+  </si>
+  <si>
+    <t>这18个通道过来可以分为规则通道和注入通道，</t>
+  </si>
+  <si>
+    <t>规则通道最多16和，注入通道最多4个，顺序可以任意配置</t>
+  </si>
+  <si>
+    <t>4号：</t>
+  </si>
+  <si>
+    <t>一些触发源</t>
+  </si>
+  <si>
+    <t>5号：</t>
+  </si>
+  <si>
+    <t>输入时钟</t>
+  </si>
+  <si>
+    <t>APB2分频产生的</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -50,21 +743,346 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -72,6 +1090,96 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="742950" y="2000250"/>
+          <a:ext cx="8991600" cy="3590925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>194945</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>60325</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2" descr="20211210-164549"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="7252970" cy="10118725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -355,50 +1463,1485 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:AE149"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C5" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="16384" width="4.875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="22.5" spans="9:31">
+      <c r="I1" s="11"/>
+      <c r="J1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="V1" s="6"/>
+      <c r="W1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="X1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE1" s="6"/>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:27">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="X2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA2" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="2:2">
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="3:3">
+      <c r="C4" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="3:3">
+      <c r="C5" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="4:4">
+      <c r="D6" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="4:4">
+      <c r="D7" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" spans="3:3">
+      <c r="C8" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" spans="4:4">
+      <c r="D9" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" spans="4:4">
+      <c r="D10" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" spans="4:4">
+      <c r="D11" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" spans="3:4">
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+    </row>
+    <row r="13" s="1" customFormat="1" spans="3:4">
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+    </row>
+    <row r="17" s="1" customFormat="1" spans="2:2">
+      <c r="B17" s="7"/>
+    </row>
+    <row r="18" s="1" customFormat="1" spans="2:2">
+      <c r="B18" s="7"/>
+    </row>
+    <row r="19" s="1" customFormat="1" spans="2:2">
+      <c r="B19" s="7"/>
+    </row>
+    <row r="20" s="1" customFormat="1" spans="2:2">
+      <c r="B20" s="7"/>
+    </row>
+    <row r="21" s="1" customFormat="1" spans="2:2">
+      <c r="B21" s="7"/>
+    </row>
+    <row r="22" s="1" customFormat="1" spans="2:2">
+      <c r="B22" s="7"/>
+    </row>
+    <row r="23" s="1" customFormat="1" spans="2:2">
+      <c r="B23" s="7"/>
+    </row>
+    <row r="24" s="1" customFormat="1" spans="2:2">
+      <c r="B24" s="7"/>
+    </row>
+    <row r="25" s="1" customFormat="1" spans="2:2">
+      <c r="B25" s="7"/>
+    </row>
+    <row r="27" s="1" customFormat="1" spans="2:2">
+      <c r="B27" s="7"/>
+    </row>
+    <row r="28" s="1" customFormat="1" spans="2:2">
+      <c r="B28" s="7"/>
+    </row>
+    <row r="29" s="1" customFormat="1" spans="2:2">
+      <c r="B29" s="7"/>
+    </row>
+    <row r="30" s="1" customFormat="1" spans="2:2">
+      <c r="B30" s="7"/>
+    </row>
+    <row r="31" s="1" customFormat="1" spans="2:2">
+      <c r="B31" s="7"/>
+    </row>
+    <row r="32" s="1" customFormat="1" spans="2:2">
+      <c r="B32" s="7"/>
+    </row>
+    <row r="33" s="1" customFormat="1" spans="2:3">
+      <c r="B33" s="7"/>
+      <c r="C33" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" s="2" customFormat="1" spans="2:4">
+      <c r="B34" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C34" s="2"/>
+      <c r="D34" s="8"/>
+    </row>
+    <row r="35" s="1" customFormat="1" spans="2:3">
+      <c r="B35" s="7"/>
+      <c r="C35" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="36" s="1" customFormat="1" spans="2:3">
+      <c r="B36" s="7"/>
+      <c r="C36" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="37" s="2" customFormat="1" spans="3:3">
+      <c r="C37" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="38" s="2" customFormat="1" spans="3:3">
+      <c r="C38" s="6"/>
+    </row>
+    <row r="39" s="2" customFormat="1"/>
+    <row r="40" s="2" customFormat="1"/>
+    <row r="41" s="2" customFormat="1"/>
+    <row r="42" s="2" customFormat="1"/>
+    <row r="43" s="2" customFormat="1"/>
+    <row r="44" s="2" customFormat="1"/>
+    <row r="45" s="2" customFormat="1"/>
+    <row r="46" s="2" customFormat="1" spans="2:2">
+      <c r="B46" s="9"/>
+    </row>
+    <row r="47" s="2" customFormat="1" spans="2:2">
+      <c r="B47" s="9"/>
+    </row>
+    <row r="48" s="2" customFormat="1" spans="2:2">
+      <c r="B48" s="9"/>
+    </row>
+    <row r="49" s="2" customFormat="1" spans="2:2">
+      <c r="B49" s="9"/>
+    </row>
+    <row r="50" s="2" customFormat="1" spans="2:2">
+      <c r="B50" s="9"/>
+    </row>
+    <row r="51" s="2" customFormat="1" spans="2:2">
+      <c r="B51" s="9"/>
+    </row>
+    <row r="52" s="2" customFormat="1" spans="2:2">
+      <c r="B52" s="9"/>
+    </row>
+    <row r="53" s="2" customFormat="1" spans="2:2">
+      <c r="B53" s="9"/>
+    </row>
+    <row r="54" s="2" customFormat="1" spans="2:2">
+      <c r="B54" s="9"/>
+    </row>
+    <row r="55" s="2" customFormat="1" spans="2:3">
+      <c r="B55" s="9"/>
+      <c r="C55" s="10"/>
+    </row>
+    <row r="56" s="2" customFormat="1" spans="2:2">
+      <c r="B56" s="9"/>
+    </row>
+    <row r="57" s="2" customFormat="1" spans="2:2">
+      <c r="B57" s="7"/>
+    </row>
+    <row r="58" s="2" customFormat="1" spans="2:2">
+      <c r="B58" s="7"/>
+    </row>
+    <row r="59" s="2" customFormat="1" spans="2:2">
+      <c r="B59" s="9"/>
+    </row>
+    <row r="60" s="3" customFormat="1" spans="1:1">
+      <c r="A60" s="1"/>
+    </row>
+    <row r="61" s="3" customFormat="1" spans="1:1">
+      <c r="A61" s="1"/>
+    </row>
+    <row r="62" s="3" customFormat="1" spans="1:1">
+      <c r="A62" s="1"/>
+    </row>
+    <row r="63" s="3" customFormat="1" spans="1:1">
+      <c r="A63" s="1"/>
+    </row>
+    <row r="64" s="3" customFormat="1" spans="1:1">
+      <c r="A64" s="1"/>
+    </row>
+    <row r="65" s="3" customFormat="1" spans="1:1">
+      <c r="A65" s="1"/>
+    </row>
+    <row r="66" s="3" customFormat="1" spans="1:1">
+      <c r="A66" s="1"/>
+    </row>
+    <row r="67" s="3" customFormat="1" spans="1:1">
+      <c r="A67" s="1"/>
+    </row>
+    <row r="68" s="3" customFormat="1" spans="1:1">
+      <c r="A68" s="1"/>
+    </row>
+    <row r="69" s="3" customFormat="1" spans="1:1">
+      <c r="A69" s="1"/>
+    </row>
+    <row r="70" s="3" customFormat="1" spans="1:1">
+      <c r="A70" s="1"/>
+    </row>
+    <row r="71" s="3" customFormat="1" spans="1:1">
+      <c r="A71" s="1"/>
+    </row>
+    <row r="72" s="3" customFormat="1" spans="1:1">
+      <c r="A72" s="1"/>
+    </row>
+    <row r="73" s="3" customFormat="1" spans="1:1">
+      <c r="A73" s="1"/>
+    </row>
+    <row r="74" s="3" customFormat="1" spans="1:1">
+      <c r="A74" s="1"/>
+    </row>
+    <row r="75" s="3" customFormat="1" spans="1:1">
+      <c r="A75" s="1"/>
+    </row>
+    <row r="76" s="3" customFormat="1" spans="1:1">
+      <c r="A76" s="1"/>
+    </row>
+    <row r="77" s="3" customFormat="1" spans="1:1">
+      <c r="A77" s="1"/>
+    </row>
+    <row r="78" s="3" customFormat="1" spans="1:1">
+      <c r="A78" s="1"/>
+    </row>
+    <row r="79" s="3" customFormat="1" spans="1:1">
+      <c r="A79" s="1"/>
+    </row>
+    <row r="80" s="3" customFormat="1" spans="1:1">
+      <c r="A80" s="1"/>
+    </row>
+    <row r="81" s="3" customFormat="1" spans="1:1">
+      <c r="A81" s="1"/>
+    </row>
+    <row r="82" s="3" customFormat="1" spans="1:1">
+      <c r="A82" s="1"/>
+    </row>
+    <row r="83" s="3" customFormat="1" spans="1:1">
+      <c r="A83" s="1"/>
+    </row>
+    <row r="84" s="3" customFormat="1" spans="1:1">
+      <c r="A84" s="1"/>
+    </row>
+    <row r="85" s="3" customFormat="1" spans="1:1">
+      <c r="A85" s="1"/>
+    </row>
+    <row r="86" s="3" customFormat="1" spans="1:1">
+      <c r="A86" s="1"/>
+    </row>
+    <row r="87" s="3" customFormat="1" spans="1:1">
+      <c r="A87" s="1"/>
+    </row>
+    <row r="88" s="3" customFormat="1" spans="1:1">
+      <c r="A88" s="1"/>
+    </row>
+    <row r="89" s="3" customFormat="1" spans="1:1">
+      <c r="A89" s="1"/>
+    </row>
+    <row r="90" s="3" customFormat="1" spans="1:1">
+      <c r="A90" s="1"/>
+    </row>
+    <row r="91" s="3" customFormat="1" spans="1:1">
+      <c r="A91" s="1"/>
+    </row>
+    <row r="92" s="3" customFormat="1" spans="1:1">
+      <c r="A92" s="1"/>
+    </row>
+    <row r="93" s="3" customFormat="1" spans="1:1">
+      <c r="A93" s="1"/>
+    </row>
+    <row r="94" s="3" customFormat="1" spans="1:1">
+      <c r="A94" s="1"/>
+    </row>
+    <row r="95" s="3" customFormat="1" spans="1:1">
+      <c r="A95" s="1"/>
+    </row>
+    <row r="96" s="3" customFormat="1" spans="1:1">
+      <c r="A96" s="1"/>
+    </row>
+    <row r="97" s="3" customFormat="1" spans="1:1">
+      <c r="A97" s="1"/>
+    </row>
+    <row r="98" s="3" customFormat="1" spans="1:1">
+      <c r="A98" s="1"/>
+    </row>
+    <row r="99" s="3" customFormat="1" spans="1:1">
+      <c r="A99" s="1"/>
+    </row>
+    <row r="100" s="3" customFormat="1" spans="1:1">
+      <c r="A100" s="1"/>
+    </row>
+    <row r="101" s="3" customFormat="1" spans="1:1">
+      <c r="A101" s="1"/>
+    </row>
+    <row r="102" s="3" customFormat="1" spans="1:1">
+      <c r="A102" s="1"/>
+    </row>
+    <row r="103" s="3" customFormat="1" spans="1:1">
+      <c r="A103" s="1"/>
+    </row>
+    <row r="104" s="3" customFormat="1" spans="1:1">
+      <c r="A104" s="1"/>
+    </row>
+    <row r="105" s="3" customFormat="1" spans="1:1">
+      <c r="A105" s="1"/>
+    </row>
+    <row r="106" s="3" customFormat="1" spans="1:1">
+      <c r="A106" s="1"/>
+    </row>
+    <row r="107" s="3" customFormat="1" spans="1:1">
+      <c r="A107" s="1"/>
+    </row>
+    <row r="108" s="3" customFormat="1" spans="1:1">
+      <c r="A108" s="1"/>
+    </row>
+    <row r="109" s="3" customFormat="1" spans="1:1">
+      <c r="A109" s="1"/>
+    </row>
+    <row r="110" s="3" customFormat="1" spans="1:1">
+      <c r="A110" s="1"/>
+    </row>
+    <row r="111" s="3" customFormat="1" spans="1:1">
+      <c r="A111" s="1"/>
+    </row>
+    <row r="112" s="3" customFormat="1" spans="1:1">
+      <c r="A112" s="1"/>
+    </row>
+    <row r="113" s="3" customFormat="1" spans="1:1">
+      <c r="A113" s="1"/>
+    </row>
+    <row r="114" s="3" customFormat="1" spans="1:1">
+      <c r="A114" s="1"/>
+    </row>
+    <row r="115" s="3" customFormat="1" spans="1:1">
+      <c r="A115" s="1"/>
+    </row>
+    <row r="116" s="3" customFormat="1" spans="1:1">
+      <c r="A116" s="1"/>
+    </row>
+    <row r="117" s="3" customFormat="1" spans="1:1">
+      <c r="A117" s="1"/>
+    </row>
+    <row r="118" s="3" customFormat="1" spans="1:1">
+      <c r="A118" s="1"/>
+    </row>
+    <row r="119" s="3" customFormat="1" spans="1:1">
+      <c r="A119" s="1"/>
+    </row>
+    <row r="120" s="3" customFormat="1" spans="1:1">
+      <c r="A120" s="1"/>
+    </row>
+    <row r="121" s="3" customFormat="1" spans="1:1">
+      <c r="A121" s="1"/>
+    </row>
+    <row r="122" s="3" customFormat="1" spans="1:1">
+      <c r="A122" s="1"/>
+    </row>
+    <row r="123" s="3" customFormat="1" spans="1:1">
+      <c r="A123" s="1"/>
+    </row>
+    <row r="124" s="3" customFormat="1" spans="1:1">
+      <c r="A124" s="1"/>
+    </row>
+    <row r="125" s="3" customFormat="1" spans="1:1">
+      <c r="A125" s="1"/>
+    </row>
+    <row r="126" s="3" customFormat="1" spans="1:1">
+      <c r="A126" s="1"/>
+    </row>
+    <row r="127" s="3" customFormat="1" spans="1:1">
+      <c r="A127" s="1"/>
+    </row>
+    <row r="128" s="3" customFormat="1" spans="1:1">
+      <c r="A128" s="1"/>
+    </row>
+    <row r="129" s="3" customFormat="1" spans="1:1">
+      <c r="A129" s="1"/>
+    </row>
+    <row r="130" s="3" customFormat="1" spans="1:1">
+      <c r="A130" s="1"/>
+    </row>
+    <row r="131" s="3" customFormat="1" spans="1:1">
+      <c r="A131" s="1"/>
+    </row>
+    <row r="132" s="3" customFormat="1" spans="1:1">
+      <c r="A132" s="1"/>
+    </row>
+    <row r="133" s="3" customFormat="1" spans="1:1">
+      <c r="A133" s="1"/>
+    </row>
+    <row r="134" s="3" customFormat="1" spans="1:1">
+      <c r="A134" s="1"/>
+    </row>
+    <row r="135" s="3" customFormat="1" spans="1:1">
+      <c r="A135" s="1"/>
+    </row>
+    <row r="136" s="3" customFormat="1" spans="1:1">
+      <c r="A136" s="1"/>
+    </row>
+    <row r="137" s="3" customFormat="1" spans="1:1">
+      <c r="A137" s="1"/>
+    </row>
+    <row r="138" s="3" customFormat="1" spans="1:1">
+      <c r="A138" s="1"/>
+    </row>
+    <row r="139" s="3" customFormat="1" spans="1:1">
+      <c r="A139" s="1"/>
+    </row>
+    <row r="140" s="3" customFormat="1" spans="1:1">
+      <c r="A140" s="1"/>
+    </row>
+    <row r="141" s="3" customFormat="1" spans="1:1">
+      <c r="A141" s="1"/>
+    </row>
+    <row r="142" s="3" customFormat="1" spans="1:1">
+      <c r="A142" s="1"/>
+    </row>
+    <row r="143" s="3" customFormat="1" spans="1:1">
+      <c r="A143" s="1"/>
+    </row>
+    <row r="144" s="4" customFormat="1"/>
+    <row r="145" s="4" customFormat="1"/>
+    <row r="146" s="4" customFormat="1"/>
+    <row r="147" s="4" customFormat="1"/>
+    <row r="148" s="5" customFormat="1"/>
+    <row r="149" s="5" customFormat="1"/>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:AE149"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="16384" width="4.875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="22.5" spans="9:31">
+      <c r="I1" s="11"/>
+      <c r="J1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="V1" s="6"/>
+      <c r="W1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="X1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE1" s="6"/>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:27">
+      <c r="A2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="X2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA2" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="2:2">
+      <c r="B3" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="3:3">
+      <c r="C4" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="3:3">
+      <c r="C5" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="3:3">
+      <c r="C6" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="3:3">
+      <c r="C7" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" spans="3:3">
+      <c r="C8" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" spans="2:2">
+      <c r="B9" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" spans="4:4">
+      <c r="D11" s="6"/>
+    </row>
+    <row r="12" s="1" customFormat="1" spans="3:4">
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+    </row>
+    <row r="13" s="1" customFormat="1" spans="3:4">
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+    </row>
+    <row r="17" s="1" customFormat="1" spans="2:2">
+      <c r="B17" s="7"/>
+    </row>
+    <row r="18" s="1" customFormat="1" spans="2:2">
+      <c r="B18" s="7"/>
+    </row>
+    <row r="19" s="1" customFormat="1" spans="2:2">
+      <c r="B19" s="7"/>
+    </row>
+    <row r="20" s="1" customFormat="1" spans="2:2">
+      <c r="B20" s="7"/>
+    </row>
+    <row r="21" s="1" customFormat="1" spans="2:2">
+      <c r="B21" s="7"/>
+    </row>
+    <row r="22" s="1" customFormat="1" spans="2:2">
+      <c r="B22" s="7"/>
+    </row>
+    <row r="23" s="1" customFormat="1" spans="2:2">
+      <c r="B23" s="7"/>
+    </row>
+    <row r="24" s="1" customFormat="1" spans="2:2">
+      <c r="B24" s="7"/>
+    </row>
+    <row r="25" s="1" customFormat="1" spans="2:2">
+      <c r="B25" s="7"/>
+    </row>
+    <row r="27" s="1" customFormat="1" spans="2:2">
+      <c r="B27" s="7"/>
+    </row>
+    <row r="28" s="1" customFormat="1" spans="2:2">
+      <c r="B28" s="7"/>
+    </row>
+    <row r="29" s="1" customFormat="1" spans="2:2">
+      <c r="B29" s="7"/>
+    </row>
+    <row r="30" s="1" customFormat="1" spans="2:2">
+      <c r="B30" s="7"/>
+    </row>
+    <row r="31" s="1" customFormat="1" spans="2:2">
+      <c r="B31" s="7"/>
+    </row>
+    <row r="32" s="1" customFormat="1" spans="2:2">
+      <c r="B32" s="7"/>
+    </row>
+    <row r="33" s="1" customFormat="1" spans="2:2">
+      <c r="B33" s="7"/>
+    </row>
+    <row r="34" s="2" customFormat="1" spans="4:4">
+      <c r="D34" s="8"/>
+    </row>
+    <row r="35" s="1" customFormat="1" spans="2:2">
+      <c r="B35" s="7"/>
+    </row>
+    <row r="36" s="1" customFormat="1" spans="2:2">
+      <c r="B36" s="7"/>
+    </row>
+    <row r="37" s="2" customFormat="1" spans="3:3">
+      <c r="C37" s="6"/>
+    </row>
+    <row r="38" s="2" customFormat="1" spans="3:3">
+      <c r="C38" s="6"/>
+    </row>
+    <row r="39" s="2" customFormat="1"/>
+    <row r="40" s="2" customFormat="1"/>
+    <row r="41" s="2" customFormat="1"/>
+    <row r="42" s="2" customFormat="1"/>
+    <row r="43" s="2" customFormat="1"/>
+    <row r="44" s="2" customFormat="1"/>
+    <row r="45" s="2" customFormat="1"/>
+    <row r="46" s="2" customFormat="1" spans="2:2">
+      <c r="B46" s="9"/>
+    </row>
+    <row r="47" s="2" customFormat="1" spans="2:2">
+      <c r="B47" s="9"/>
+    </row>
+    <row r="48" s="2" customFormat="1" spans="2:2">
+      <c r="B48" s="9"/>
+    </row>
+    <row r="49" s="2" customFormat="1" spans="2:2">
+      <c r="B49" s="9"/>
+    </row>
+    <row r="50" s="2" customFormat="1" spans="2:2">
+      <c r="B50" s="9"/>
+    </row>
+    <row r="51" s="2" customFormat="1" spans="2:2">
+      <c r="B51" s="9"/>
+    </row>
+    <row r="52" s="2" customFormat="1" spans="2:2">
+      <c r="B52" s="9"/>
+    </row>
+    <row r="53" s="2" customFormat="1" spans="2:2">
+      <c r="B53" s="9"/>
+    </row>
+    <row r="54" s="2" customFormat="1" spans="2:2">
+      <c r="B54" s="9"/>
+    </row>
+    <row r="55" s="2" customFormat="1" spans="2:3">
+      <c r="B55" s="9"/>
+      <c r="C55" s="10"/>
+    </row>
+    <row r="56" s="2" customFormat="1" spans="2:2">
+      <c r="B56" s="9"/>
+    </row>
+    <row r="57" s="2" customFormat="1" spans="2:2">
+      <c r="B57" s="7"/>
+    </row>
+    <row r="58" s="2" customFormat="1" spans="2:2">
+      <c r="B58" s="7"/>
+    </row>
+    <row r="59" s="2" customFormat="1" spans="2:2">
+      <c r="B59" s="9"/>
+    </row>
+    <row r="60" s="3" customFormat="1" spans="1:1">
+      <c r="A60" s="1"/>
+    </row>
+    <row r="61" s="3" customFormat="1" spans="1:1">
+      <c r="A61" s="1"/>
+    </row>
+    <row r="62" s="3" customFormat="1" spans="1:1">
+      <c r="A62" s="1"/>
+    </row>
+    <row r="63" s="3" customFormat="1" spans="1:1">
+      <c r="A63" s="1"/>
+    </row>
+    <row r="64" s="3" customFormat="1" spans="1:1">
+      <c r="A64" s="1"/>
+    </row>
+    <row r="65" s="3" customFormat="1" spans="1:1">
+      <c r="A65" s="1"/>
+    </row>
+    <row r="66" s="3" customFormat="1" spans="1:1">
+      <c r="A66" s="1"/>
+    </row>
+    <row r="67" s="3" customFormat="1" spans="1:1">
+      <c r="A67" s="1"/>
+    </row>
+    <row r="68" s="3" customFormat="1" spans="1:1">
+      <c r="A68" s="1"/>
+    </row>
+    <row r="69" s="3" customFormat="1" spans="1:1">
+      <c r="A69" s="1"/>
+    </row>
+    <row r="70" s="3" customFormat="1" spans="1:1">
+      <c r="A70" s="1"/>
+    </row>
+    <row r="71" s="3" customFormat="1" spans="1:1">
+      <c r="A71" s="1"/>
+    </row>
+    <row r="72" s="3" customFormat="1" spans="1:1">
+      <c r="A72" s="1"/>
+    </row>
+    <row r="73" s="3" customFormat="1" spans="1:1">
+      <c r="A73" s="1"/>
+    </row>
+    <row r="74" s="3" customFormat="1" spans="1:1">
+      <c r="A74" s="1"/>
+    </row>
+    <row r="75" s="3" customFormat="1" spans="1:1">
+      <c r="A75" s="1"/>
+    </row>
+    <row r="76" s="3" customFormat="1" spans="1:1">
+      <c r="A76" s="1"/>
+    </row>
+    <row r="77" s="3" customFormat="1" spans="1:1">
+      <c r="A77" s="1"/>
+    </row>
+    <row r="78" s="3" customFormat="1" spans="1:1">
+      <c r="A78" s="1"/>
+    </row>
+    <row r="79" s="3" customFormat="1" spans="1:1">
+      <c r="A79" s="1"/>
+    </row>
+    <row r="80" s="3" customFormat="1" spans="1:1">
+      <c r="A80" s="1"/>
+    </row>
+    <row r="81" s="3" customFormat="1" spans="1:1">
+      <c r="A81" s="1"/>
+    </row>
+    <row r="82" s="3" customFormat="1" spans="1:1">
+      <c r="A82" s="1"/>
+    </row>
+    <row r="83" s="3" customFormat="1" spans="1:1">
+      <c r="A83" s="1"/>
+    </row>
+    <row r="84" s="3" customFormat="1" spans="1:1">
+      <c r="A84" s="1"/>
+    </row>
+    <row r="85" s="3" customFormat="1" spans="1:1">
+      <c r="A85" s="1"/>
+    </row>
+    <row r="86" s="3" customFormat="1" spans="1:1">
+      <c r="A86" s="1"/>
+    </row>
+    <row r="87" s="3" customFormat="1" spans="1:1">
+      <c r="A87" s="1"/>
+    </row>
+    <row r="88" s="3" customFormat="1" spans="1:1">
+      <c r="A88" s="1"/>
+    </row>
+    <row r="89" s="3" customFormat="1" spans="1:1">
+      <c r="A89" s="1"/>
+    </row>
+    <row r="90" s="3" customFormat="1" spans="1:1">
+      <c r="A90" s="1"/>
+    </row>
+    <row r="91" s="3" customFormat="1" spans="1:1">
+      <c r="A91" s="1"/>
+    </row>
+    <row r="92" s="3" customFormat="1" spans="1:1">
+      <c r="A92" s="1"/>
+    </row>
+    <row r="93" s="3" customFormat="1" spans="1:1">
+      <c r="A93" s="1"/>
+    </row>
+    <row r="94" s="3" customFormat="1" spans="1:1">
+      <c r="A94" s="1"/>
+    </row>
+    <row r="95" s="3" customFormat="1" spans="1:1">
+      <c r="A95" s="1"/>
+    </row>
+    <row r="96" s="3" customFormat="1" spans="1:1">
+      <c r="A96" s="1"/>
+    </row>
+    <row r="97" s="3" customFormat="1" spans="1:1">
+      <c r="A97" s="1"/>
+    </row>
+    <row r="98" s="3" customFormat="1" spans="1:1">
+      <c r="A98" s="1"/>
+    </row>
+    <row r="99" s="3" customFormat="1" spans="1:1">
+      <c r="A99" s="1"/>
+    </row>
+    <row r="100" s="3" customFormat="1" spans="1:1">
+      <c r="A100" s="1"/>
+    </row>
+    <row r="101" s="3" customFormat="1" spans="1:1">
+      <c r="A101" s="1"/>
+    </row>
+    <row r="102" s="3" customFormat="1" spans="1:1">
+      <c r="A102" s="1"/>
+    </row>
+    <row r="103" s="3" customFormat="1" spans="1:1">
+      <c r="A103" s="1"/>
+    </row>
+    <row r="104" s="3" customFormat="1" spans="1:1">
+      <c r="A104" s="1"/>
+    </row>
+    <row r="105" s="3" customFormat="1" spans="1:1">
+      <c r="A105" s="1"/>
+    </row>
+    <row r="106" s="3" customFormat="1" spans="1:1">
+      <c r="A106" s="1"/>
+    </row>
+    <row r="107" s="3" customFormat="1" spans="1:1">
+      <c r="A107" s="1"/>
+    </row>
+    <row r="108" s="3" customFormat="1" spans="1:1">
+      <c r="A108" s="1"/>
+    </row>
+    <row r="109" s="3" customFormat="1" spans="1:1">
+      <c r="A109" s="1"/>
+    </row>
+    <row r="110" s="3" customFormat="1" spans="1:1">
+      <c r="A110" s="1"/>
+    </row>
+    <row r="111" s="3" customFormat="1" spans="1:1">
+      <c r="A111" s="1"/>
+    </row>
+    <row r="112" s="3" customFormat="1" spans="1:1">
+      <c r="A112" s="1"/>
+    </row>
+    <row r="113" s="3" customFormat="1" spans="1:1">
+      <c r="A113" s="1"/>
+    </row>
+    <row r="114" s="3" customFormat="1" spans="1:1">
+      <c r="A114" s="1"/>
+    </row>
+    <row r="115" s="3" customFormat="1" spans="1:1">
+      <c r="A115" s="1"/>
+    </row>
+    <row r="116" s="3" customFormat="1" spans="1:1">
+      <c r="A116" s="1"/>
+    </row>
+    <row r="117" s="3" customFormat="1" spans="1:1">
+      <c r="A117" s="1"/>
+    </row>
+    <row r="118" s="3" customFormat="1" spans="1:1">
+      <c r="A118" s="1"/>
+    </row>
+    <row r="119" s="3" customFormat="1" spans="1:1">
+      <c r="A119" s="1"/>
+    </row>
+    <row r="120" s="3" customFormat="1" spans="1:1">
+      <c r="A120" s="1"/>
+    </row>
+    <row r="121" s="3" customFormat="1" spans="1:1">
+      <c r="A121" s="1"/>
+    </row>
+    <row r="122" s="3" customFormat="1" spans="1:1">
+      <c r="A122" s="1"/>
+    </row>
+    <row r="123" s="3" customFormat="1" spans="1:1">
+      <c r="A123" s="1"/>
+    </row>
+    <row r="124" s="3" customFormat="1" spans="1:1">
+      <c r="A124" s="1"/>
+    </row>
+    <row r="125" s="3" customFormat="1" spans="1:1">
+      <c r="A125" s="1"/>
+    </row>
+    <row r="126" s="3" customFormat="1" spans="1:1">
+      <c r="A126" s="1"/>
+    </row>
+    <row r="127" s="3" customFormat="1" spans="1:1">
+      <c r="A127" s="1"/>
+    </row>
+    <row r="128" s="3" customFormat="1" spans="1:1">
+      <c r="A128" s="1"/>
+    </row>
+    <row r="129" s="3" customFormat="1" spans="1:1">
+      <c r="A129" s="1"/>
+    </row>
+    <row r="130" s="3" customFormat="1" spans="1:1">
+      <c r="A130" s="1"/>
+    </row>
+    <row r="131" s="3" customFormat="1" spans="1:1">
+      <c r="A131" s="1"/>
+    </row>
+    <row r="132" s="3" customFormat="1" spans="1:1">
+      <c r="A132" s="1"/>
+    </row>
+    <row r="133" s="3" customFormat="1" spans="1:1">
+      <c r="A133" s="1"/>
+    </row>
+    <row r="134" s="3" customFormat="1" spans="1:1">
+      <c r="A134" s="1"/>
+    </row>
+    <row r="135" s="3" customFormat="1" spans="1:1">
+      <c r="A135" s="1"/>
+    </row>
+    <row r="136" s="3" customFormat="1" spans="1:1">
+      <c r="A136" s="1"/>
+    </row>
+    <row r="137" s="3" customFormat="1" spans="1:1">
+      <c r="A137" s="1"/>
+    </row>
+    <row r="138" s="3" customFormat="1" spans="1:1">
+      <c r="A138" s="1"/>
+    </row>
+    <row r="139" s="3" customFormat="1" spans="1:1">
+      <c r="A139" s="1"/>
+    </row>
+    <row r="140" s="3" customFormat="1" spans="1:1">
+      <c r="A140" s="1"/>
+    </row>
+    <row r="141" s="3" customFormat="1" spans="1:1">
+      <c r="A141" s="1"/>
+    </row>
+    <row r="142" s="3" customFormat="1" spans="1:1">
+      <c r="A142" s="1"/>
+    </row>
+    <row r="143" s="3" customFormat="1" spans="1:1">
+      <c r="A143" s="1"/>
+    </row>
+    <row r="144" s="4" customFormat="1"/>
+    <row r="145" s="4" customFormat="1"/>
+    <row r="146" s="4" customFormat="1"/>
+    <row r="147" s="4" customFormat="1"/>
+    <row r="148" s="5" customFormat="1"/>
+    <row r="149" s="5" customFormat="1"/>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:AE149"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScale="145" zoomScaleNormal="145" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="AA26" sqref="AA26"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="16384" width="4.875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="22.5" spans="9:31">
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="V1" s="6"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="6"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+      <c r="AA1" s="1"/>
+      <c r="AE1" s="6"/>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="21:27">
+      <c r="U2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="X2" s="6"/>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="12"/>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="22:22">
+      <c r="V3" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="22:22">
+      <c r="V4" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="22:22">
+      <c r="V5" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="22:22">
+      <c r="V6" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="22:22">
+      <c r="V7" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" spans="21:21">
+      <c r="U9" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" spans="22:22">
+      <c r="V10" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" spans="4:22">
+      <c r="D11" s="6"/>
+      <c r="V11" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" spans="3:4">
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+    </row>
+    <row r="13" s="1" customFormat="1" spans="3:21">
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="U13" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" s="1" customFormat="1" spans="22:22">
+      <c r="V14" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" s="1" customFormat="1" spans="22:22">
+      <c r="V15" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" s="1" customFormat="1" spans="22:22">
+      <c r="V16" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" s="1" customFormat="1" spans="2:2">
+      <c r="B17" s="7"/>
+    </row>
+    <row r="18" s="1" customFormat="1" spans="2:21">
+      <c r="B18" s="7"/>
+      <c r="U18" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" s="1" customFormat="1" spans="2:22">
+      <c r="B19" s="7"/>
+      <c r="V19" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" s="1" customFormat="1" spans="2:2">
+      <c r="B20" s="7"/>
+    </row>
+    <row r="21" s="1" customFormat="1" spans="2:21">
+      <c r="B21" s="7"/>
+      <c r="U21" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" s="1" customFormat="1" spans="2:22">
+      <c r="B22" s="7"/>
+      <c r="V22" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" s="1" customFormat="1" spans="2:22">
+      <c r="B23" s="7"/>
+      <c r="V23" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" s="1" customFormat="1" spans="2:2">
+      <c r="B24" s="7"/>
+    </row>
+    <row r="25" s="1" customFormat="1" spans="2:2">
+      <c r="B25" s="7"/>
+    </row>
+    <row r="27" s="1" customFormat="1" spans="2:2">
+      <c r="B27" s="7"/>
+    </row>
+    <row r="28" s="1" customFormat="1" spans="2:2">
+      <c r="B28" s="7"/>
+    </row>
+    <row r="29" s="1" customFormat="1" spans="2:2">
+      <c r="B29" s="7"/>
+    </row>
+    <row r="30" s="1" customFormat="1" spans="2:2">
+      <c r="B30" s="7"/>
+    </row>
+    <row r="31" s="1" customFormat="1" spans="2:2">
+      <c r="B31" s="7"/>
+    </row>
+    <row r="32" s="1" customFormat="1" spans="2:2">
+      <c r="B32" s="7"/>
+    </row>
+    <row r="33" s="1" customFormat="1" spans="2:2">
+      <c r="B33" s="7"/>
+    </row>
+    <row r="34" s="2" customFormat="1" spans="4:4">
+      <c r="D34" s="8"/>
+    </row>
+    <row r="35" s="1" customFormat="1" spans="2:2">
+      <c r="B35" s="7"/>
+    </row>
+    <row r="36" s="1" customFormat="1" spans="2:2">
+      <c r="B36" s="7"/>
+    </row>
+    <row r="37" s="2" customFormat="1" spans="3:3">
+      <c r="C37" s="6"/>
+    </row>
+    <row r="38" s="2" customFormat="1" spans="3:3">
+      <c r="C38" s="6"/>
+    </row>
+    <row r="39" s="2" customFormat="1"/>
+    <row r="40" s="2" customFormat="1"/>
+    <row r="41" s="2" customFormat="1"/>
+    <row r="42" s="2" customFormat="1"/>
+    <row r="43" s="2" customFormat="1"/>
+    <row r="44" s="2" customFormat="1"/>
+    <row r="45" s="2" customFormat="1"/>
+    <row r="46" s="2" customFormat="1" spans="2:2">
+      <c r="B46" s="9"/>
+    </row>
+    <row r="47" s="2" customFormat="1" spans="2:2">
+      <c r="B47" s="9"/>
+    </row>
+    <row r="48" s="2" customFormat="1" spans="2:2">
+      <c r="B48" s="9"/>
+    </row>
+    <row r="49" s="2" customFormat="1" spans="2:2">
+      <c r="B49" s="9"/>
+    </row>
+    <row r="50" s="2" customFormat="1" spans="2:2">
+      <c r="B50" s="9"/>
+    </row>
+    <row r="51" s="2" customFormat="1" spans="2:2">
+      <c r="B51" s="9"/>
+    </row>
+    <row r="52" s="2" customFormat="1" spans="2:2">
+      <c r="B52" s="9"/>
+    </row>
+    <row r="53" s="2" customFormat="1" spans="2:2">
+      <c r="B53" s="9"/>
+    </row>
+    <row r="54" s="2" customFormat="1" spans="2:2">
+      <c r="B54" s="9"/>
+    </row>
+    <row r="55" s="2" customFormat="1" spans="2:3">
+      <c r="B55" s="9"/>
+      <c r="C55" s="10"/>
+    </row>
+    <row r="56" s="2" customFormat="1" spans="2:2">
+      <c r="B56" s="9"/>
+    </row>
+    <row r="57" s="2" customFormat="1" spans="2:2">
+      <c r="B57" s="7"/>
+    </row>
+    <row r="58" s="2" customFormat="1" spans="2:2">
+      <c r="B58" s="7"/>
+    </row>
+    <row r="59" s="2" customFormat="1" spans="2:2">
+      <c r="B59" s="9"/>
+    </row>
+    <row r="60" s="3" customFormat="1" spans="1:1">
+      <c r="A60" s="1"/>
+    </row>
+    <row r="61" s="3" customFormat="1" spans="1:1">
+      <c r="A61" s="1"/>
+    </row>
+    <row r="62" s="3" customFormat="1" spans="1:1">
+      <c r="A62" s="1"/>
+    </row>
+    <row r="63" s="3" customFormat="1" spans="1:1">
+      <c r="A63" s="1"/>
+    </row>
+    <row r="64" s="3" customFormat="1" spans="1:1">
+      <c r="A64" s="1"/>
+    </row>
+    <row r="65" s="3" customFormat="1" spans="1:1">
+      <c r="A65" s="1"/>
+    </row>
+    <row r="66" s="3" customFormat="1" spans="1:1">
+      <c r="A66" s="1"/>
+    </row>
+    <row r="67" s="3" customFormat="1" spans="1:1">
+      <c r="A67" s="1"/>
+    </row>
+    <row r="68" s="3" customFormat="1" spans="1:1">
+      <c r="A68" s="1"/>
+    </row>
+    <row r="69" s="3" customFormat="1" spans="1:1">
+      <c r="A69" s="1"/>
+    </row>
+    <row r="70" s="3" customFormat="1" spans="1:1">
+      <c r="A70" s="1"/>
+    </row>
+    <row r="71" s="3" customFormat="1" spans="1:1">
+      <c r="A71" s="1"/>
+    </row>
+    <row r="72" s="3" customFormat="1" spans="1:1">
+      <c r="A72" s="1"/>
+    </row>
+    <row r="73" s="3" customFormat="1" spans="1:1">
+      <c r="A73" s="1"/>
+    </row>
+    <row r="74" s="3" customFormat="1" spans="1:1">
+      <c r="A74" s="1"/>
+    </row>
+    <row r="75" s="3" customFormat="1" spans="1:1">
+      <c r="A75" s="1"/>
+    </row>
+    <row r="76" s="3" customFormat="1" spans="1:1">
+      <c r="A76" s="1"/>
+    </row>
+    <row r="77" s="3" customFormat="1" spans="1:1">
+      <c r="A77" s="1"/>
+    </row>
+    <row r="78" s="3" customFormat="1" spans="1:1">
+      <c r="A78" s="1"/>
+    </row>
+    <row r="79" s="3" customFormat="1" spans="1:1">
+      <c r="A79" s="1"/>
+    </row>
+    <row r="80" s="3" customFormat="1" spans="1:1">
+      <c r="A80" s="1"/>
+    </row>
+    <row r="81" s="3" customFormat="1" spans="1:1">
+      <c r="A81" s="1"/>
+    </row>
+    <row r="82" s="3" customFormat="1" spans="1:1">
+      <c r="A82" s="1"/>
+    </row>
+    <row r="83" s="3" customFormat="1" spans="1:1">
+      <c r="A83" s="1"/>
+    </row>
+    <row r="84" s="3" customFormat="1" spans="1:1">
+      <c r="A84" s="1"/>
+    </row>
+    <row r="85" s="3" customFormat="1" spans="1:1">
+      <c r="A85" s="1"/>
+    </row>
+    <row r="86" s="3" customFormat="1" spans="1:1">
+      <c r="A86" s="1"/>
+    </row>
+    <row r="87" s="3" customFormat="1" spans="1:1">
+      <c r="A87" s="1"/>
+    </row>
+    <row r="88" s="3" customFormat="1" spans="1:1">
+      <c r="A88" s="1"/>
+    </row>
+    <row r="89" s="3" customFormat="1" spans="1:1">
+      <c r="A89" s="1"/>
+    </row>
+    <row r="90" s="3" customFormat="1" spans="1:1">
+      <c r="A90" s="1"/>
+    </row>
+    <row r="91" s="3" customFormat="1" spans="1:1">
+      <c r="A91" s="1"/>
+    </row>
+    <row r="92" s="3" customFormat="1" spans="1:1">
+      <c r="A92" s="1"/>
+    </row>
+    <row r="93" s="3" customFormat="1" spans="1:1">
+      <c r="A93" s="1"/>
+    </row>
+    <row r="94" s="3" customFormat="1" spans="1:1">
+      <c r="A94" s="1"/>
+    </row>
+    <row r="95" s="3" customFormat="1" spans="1:1">
+      <c r="A95" s="1"/>
+    </row>
+    <row r="96" s="3" customFormat="1" spans="1:1">
+      <c r="A96" s="1"/>
+    </row>
+    <row r="97" s="3" customFormat="1" spans="1:1">
+      <c r="A97" s="1"/>
+    </row>
+    <row r="98" s="3" customFormat="1" spans="1:1">
+      <c r="A98" s="1"/>
+    </row>
+    <row r="99" s="3" customFormat="1" spans="1:1">
+      <c r="A99" s="1"/>
+    </row>
+    <row r="100" s="3" customFormat="1" spans="1:1">
+      <c r="A100" s="1"/>
+    </row>
+    <row r="101" s="3" customFormat="1" spans="1:1">
+      <c r="A101" s="1"/>
+    </row>
+    <row r="102" s="3" customFormat="1" spans="1:1">
+      <c r="A102" s="1"/>
+    </row>
+    <row r="103" s="3" customFormat="1" spans="1:1">
+      <c r="A103" s="1"/>
+    </row>
+    <row r="104" s="3" customFormat="1" spans="1:1">
+      <c r="A104" s="1"/>
+    </row>
+    <row r="105" s="3" customFormat="1" spans="1:1">
+      <c r="A105" s="1"/>
+    </row>
+    <row r="106" s="3" customFormat="1" spans="1:1">
+      <c r="A106" s="1"/>
+    </row>
+    <row r="107" s="3" customFormat="1" spans="1:1">
+      <c r="A107" s="1"/>
+    </row>
+    <row r="108" s="3" customFormat="1" spans="1:1">
+      <c r="A108" s="1"/>
+    </row>
+    <row r="109" s="3" customFormat="1" spans="1:1">
+      <c r="A109" s="1"/>
+    </row>
+    <row r="110" s="3" customFormat="1" spans="1:1">
+      <c r="A110" s="1"/>
+    </row>
+    <row r="111" s="3" customFormat="1" spans="1:1">
+      <c r="A111" s="1"/>
+    </row>
+    <row r="112" s="3" customFormat="1" spans="1:1">
+      <c r="A112" s="1"/>
+    </row>
+    <row r="113" s="3" customFormat="1" spans="1:1">
+      <c r="A113" s="1"/>
+    </row>
+    <row r="114" s="3" customFormat="1" spans="1:1">
+      <c r="A114" s="1"/>
+    </row>
+    <row r="115" s="3" customFormat="1" spans="1:1">
+      <c r="A115" s="1"/>
+    </row>
+    <row r="116" s="3" customFormat="1" spans="1:1">
+      <c r="A116" s="1"/>
+    </row>
+    <row r="117" s="3" customFormat="1" spans="1:1">
+      <c r="A117" s="1"/>
+    </row>
+    <row r="118" s="3" customFormat="1" spans="1:1">
+      <c r="A118" s="1"/>
+    </row>
+    <row r="119" s="3" customFormat="1" spans="1:1">
+      <c r="A119" s="1"/>
+    </row>
+    <row r="120" s="3" customFormat="1" spans="1:1">
+      <c r="A120" s="1"/>
+    </row>
+    <row r="121" s="3" customFormat="1" spans="1:1">
+      <c r="A121" s="1"/>
+    </row>
+    <row r="122" s="3" customFormat="1" spans="1:1">
+      <c r="A122" s="1"/>
+    </row>
+    <row r="123" s="3" customFormat="1" spans="1:1">
+      <c r="A123" s="1"/>
+    </row>
+    <row r="124" s="3" customFormat="1" spans="1:1">
+      <c r="A124" s="1"/>
+    </row>
+    <row r="125" s="3" customFormat="1" spans="1:1">
+      <c r="A125" s="1"/>
+    </row>
+    <row r="126" s="3" customFormat="1" spans="1:1">
+      <c r="A126" s="1"/>
+    </row>
+    <row r="127" s="3" customFormat="1" spans="1:1">
+      <c r="A127" s="1"/>
+    </row>
+    <row r="128" s="3" customFormat="1" spans="1:1">
+      <c r="A128" s="1"/>
+    </row>
+    <row r="129" s="3" customFormat="1" spans="1:1">
+      <c r="A129" s="1"/>
+    </row>
+    <row r="130" s="3" customFormat="1" spans="1:1">
+      <c r="A130" s="1"/>
+    </row>
+    <row r="131" s="3" customFormat="1" spans="1:1">
+      <c r="A131" s="1"/>
+    </row>
+    <row r="132" s="3" customFormat="1" spans="1:1">
+      <c r="A132" s="1"/>
+    </row>
+    <row r="133" s="3" customFormat="1" spans="1:1">
+      <c r="A133" s="1"/>
+    </row>
+    <row r="134" s="3" customFormat="1" spans="1:1">
+      <c r="A134" s="1"/>
+    </row>
+    <row r="135" s="3" customFormat="1" spans="1:1">
+      <c r="A135" s="1"/>
+    </row>
+    <row r="136" s="3" customFormat="1" spans="1:1">
+      <c r="A136" s="1"/>
+    </row>
+    <row r="137" s="3" customFormat="1" spans="1:1">
+      <c r="A137" s="1"/>
+    </row>
+    <row r="138" s="3" customFormat="1" spans="1:1">
+      <c r="A138" s="1"/>
+    </row>
+    <row r="139" s="3" customFormat="1" spans="1:1">
+      <c r="A139" s="1"/>
+    </row>
+    <row r="140" s="3" customFormat="1" spans="1:1">
+      <c r="A140" s="1"/>
+    </row>
+    <row r="141" s="3" customFormat="1" spans="1:1">
+      <c r="A141" s="1"/>
+    </row>
+    <row r="142" s="3" customFormat="1" spans="1:1">
+      <c r="A142" s="1"/>
+    </row>
+    <row r="143" s="3" customFormat="1" spans="1:1">
+      <c r="A143" s="1"/>
+    </row>
+    <row r="144" s="4" customFormat="1"/>
+    <row r="145" s="4" customFormat="1"/>
+    <row r="146" s="4" customFormat="1"/>
+    <row r="147" s="4" customFormat="1"/>
+    <row r="148" s="5" customFormat="1"/>
+    <row r="149" s="5" customFormat="1"/>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>